--- a/data/r539cy_BLS_Weekly_Jobs_Claims_Indiana.xlsx
+++ b/data/r539cy_BLS_Weekly_Jobs_Claims_Indiana.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\DataViz\GitHub\Project-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\DataViz\GitHub\Project-2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8BA9BA-F85C-42AA-A1E2-A99FD2488D2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAF78C2-A9B4-44D8-85A2-BF3E1084B3CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{EB0818A7-522B-45A4-9B55-008F68C21FF8}"/>
   </bookViews>
@@ -63,9 +63,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,7 +95,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EB74E6-E07F-4FBE-996B-5368B5388DC0}">
   <dimension ref="A1:G1736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1712" workbookViewId="0">
-      <selection activeCell="D1737" sqref="D1737"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/r539cy_BLS_Weekly_Jobs_Claims_Indiana.xlsx
+++ b/data/r539cy_BLS_Weekly_Jobs_Claims_Indiana.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\DataViz\GitHub\Project-2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAF78C2-A9B4-44D8-85A2-BF3E1084B3CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA29F80-82A0-4A9B-85BE-BE328D34F491}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{EB0818A7-522B-45A4-9B55-008F68C21FF8}"/>
   </bookViews>
@@ -63,6 +63,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,7 +98,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
